--- a/experiment result cnn/512_0.7_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/512_0.7_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003854938828778665</v>
+        <v>0.0001000339999897118</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005213787016843176</v>
+        <v>0.0363348056767033</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02429469283877743</v>
+        <v>0.0004002239997228768</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001144610527818852</v>
+        <v>0.02015773734364914</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03803820424894859</v>
+        <v>0.02082942072113602</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004950859634916599</v>
+        <v>0.0008623699461677105</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002454783008063041</v>
+        <v>0.0146381444091681</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.001446402773640433</v>
+        <v>0.0169419568908454</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01492935129787439</v>
+        <v>0.005658649595808578</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02073946751607333</v>
+        <v>0.04300379973539657</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.004931302748598309</v>
+        <v>0.001669157182904166</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0007225895635630008</v>
+        <v>0.1873001289359796</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.000360323941273361</v>
+        <v>0.01351991987891801</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.001704010824545939</v>
+        <v>0.01198327274857201</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.004653748961427481</v>
+        <v>0.01127005712619582</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.006623508066991886</v>
+        <v>0.006804850491153698</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03836296491112383</v>
+        <v>0.05741949075983797</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.007550358185075244</v>
+        <v>0.005876269670994591</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09824773124792723</v>
+        <v>0.05671958445516598</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0003201519928783047</v>
+        <v>0.09282588176773872</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0007624627074294856</v>
+        <v>0.0004203459993509198</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01599892316186213</v>
+        <v>0.001063381905592297</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02465781811325055</v>
+        <v>0.005068751053663082</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0007823562928120714</v>
+        <v>0.04862079870903118</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.008759714553406869</v>
+        <v>0.01589403418093264</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.002524467445730078</v>
+        <v>0.0160140320671591</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03971489561613407</v>
+        <v>0.003687766136170521</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01892219983907955</v>
+        <v>0.04299650832945313</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002335817702856623</v>
+        <v>0.002801958411240055</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1947164271680859</v>
+        <v>0.002288259669936365</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006266986992490654</v>
+        <v>0.0007011739927361895</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.002221604430706064</v>
+        <v>0.003260740879999843</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03255004322927995</v>
+        <v>0.05049428566385341</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.010692473393373</v>
+        <v>0.01217889302867234</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0004603258712088075</v>
+        <v>0.04299760095132694</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.004343005280384567</v>
+        <v>0.01231991493440695</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00273394174414323</v>
+        <v>0.001504209913531073</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00126462666355971</v>
+        <v>0.0003003459988539455</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001164070653215497</v>
+        <v>0.07557056366437707</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.002439444496403589</v>
+        <v>0.1883076455854325</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0006005239238602224</v>
+        <v>0.005380918015020761</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03923133358677548</v>
+        <v>0.001823469948689091</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01431173506776381</v>
+        <v>0.03122017632693132</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01092323461542947</v>
+        <v>0.00102407783448821</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0003603399070911218</v>
+        <v>0.005535245088945164</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.003891474606400909</v>
+        <v>0.01821663118035925</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.002487338875141925</v>
+        <v>0.006658170093794899</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04677113912236554</v>
+        <v>0.002486084367545956</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02929188429297205</v>
+        <v>0.001611270715244937</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.004500448168411259</v>
+        <v>0.08997651539406416</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01440303025425055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01223058297019798</v>
+        <v>0.03105379272565216</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.009925549410500462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0228164789273582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007012128902732334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0004404437939579798</v>
+        <v>0.000440679995775568</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1430220313247552</v>
+        <v>0.001667493475018667</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.001345166005556029</v>
+        <v>0.0006807199975398081</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.04218484462679738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.008547582921928646</v>
+        <v>0.02657905601115795</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001400299937882923</v>
+        <v>0.07113750789818821</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02050440224396559</v>
+        <v>0.004165930026601654</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01594326455387468</v>
+        <v>0.05385723589794068</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0007427323556927487</v>
+        <v>0.004420363617282179</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06203471068807127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004455042113774068</v>
+        <v>0.00249421015931799</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05466588934816875</v>
+        <v>0.001184317819216889</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01240298683748979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001828793327002733</v>
+        <v>0.0008014759838919968</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.007135664628479373</v>
+        <v>0.009698860815132788</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.002912580551000703</v>
+        <v>0.02309471554867204</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01625805990547191</v>
+        <v>0.01974286272770642</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.008317494004056594</v>
+        <v>0.001225269726591336</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01017561690944033</v>
+        <v>0.001041943977360645</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001831403342166905</v>
+        <v>0.05642490600193486</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.00116360429181759</v>
+        <v>0.03303077497869852</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.005140952560091486</v>
+        <v>0.008904397709874905</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01003974386188829</v>
+        <v>0.001507149509401105</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01399422407589908</v>
+        <v>0.001833284249748018</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.170809497474968</v>
+        <v>0.002884312625010834</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01916160051070228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.003276330161561074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08335143673551373</v>
+        <v>0.008467706730883675</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03706278572496867</v>
+        <v>0.0006609099935159226</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01689149074898683</v>
+        <v>0.0003002339995889111</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.005571091193118678</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.002136078660424057</v>
+        <v>0.0001400339999954776</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.00226923302017827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.002728994577900926</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03104035089696559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.008013128103661699</v>
+        <v>0.000902441946075418</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.005129466550208898</v>
+        <v>0.0006213739816223398</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0497669032444497</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08804014159952003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03638183544675379</v>
+        <v>0.002019212237504521</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03005610416229123</v>
+        <v>0.005409908103818657</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.04370109276558569</v>
+        <v>0.05029349971271004</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.007382006935369621</v>
+        <v>0.003165505223488571</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.008163065222332865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01042480723599151</v>
+        <v>0.3852171466353617</v>
       </c>
     </row>
   </sheetData>
